--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,47 +26,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="24"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00000000"/>
       <sz val="24"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBB917"/>
-        <bgColor rgb="FFFBB917"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA121"/>
-        <bgColor rgb="FF6AA121"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F8FF"/>
-        <bgColor rgb="FFF0F8FF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -86,27 +61,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -119,21 +79,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -217,11 +177,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Hoja 1'!C5</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -229,74 +184,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Hoja 1'!$D$5:$D$9</f>
+              <f>'Sheet'!$C$5:$C$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Hoja 1'!$C$6:$C$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Hoja 1'!$D$5:$D$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Hoja 1'!$C$5:$C$9</f>
+              <f>'Sheet'!$D$5:$D$11</f>
             </numRef>
           </val>
         </ser>
@@ -355,28 +248,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -674,28 +545,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="2.4"/>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
     <col customWidth="1" max="2" min="2" width="2.4"/>
     <col customWidth="1" max="3" min="3" width="25.2"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="5" min="5" width="20.4"/>
     <col customWidth="1" max="6" min="6" width="12"/>
-    <col customWidth="1" max="8" min="7" width="2.4"/>
+    <col customWidth="1" max="7" min="7" width="2.4"/>
     <col customWidth="1" max="8" min="8" width="2.4"/>
     <col customWidth="1" max="9" min="9" width="26.4"/>
   </cols>
   <sheetData>
     <row r="1"/>
-    <row customHeight="1" ht="30" r="2">
-      <c r="I2" s="4" t="inlineStr">
+    <row r="2">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Muestra de productos</t>
         </is>
@@ -703,114 +574,162 @@
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Nombre del producto</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Código producto</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Estatus</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>145.75</v>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Camisa</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Blusa</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Blusa</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>742.8</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Inactivo</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Lentes</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Lentes</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Pantalon</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Inactivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>299</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Gorra</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Inactivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total: </t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>$2065.45</t>
         </is>
       </c>
     </row>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -233,7 +233,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>3</col>
       <colOff>0</colOff>
       <row>14</row>
       <rowOff>0</rowOff>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -1,139 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Código producto</t>
-  </si>
-  <si>
-    <t>Estatus</t>
-  </si>
-  <si>
-    <t>Camisa</t>
-  </si>
-  <si>
-    <t>145.75</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Blusa</t>
-  </si>
-  <si>
-    <t>99.9</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Zapatos</t>
-  </si>
-  <si>
-    <t>742.8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
-  </si>
-  <si>
-    <t>Lentes</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Pantalón</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Gorra</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Suma total</t>
-  </si>
-  <si>
-    <t>2066.45</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006AA121"/>
+        <bgColor rgb="006AA121"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBB917"/>
+        <bgColor rgb="00FBB917"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,19 +69,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$C$5:$C$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$5:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,152 +540,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
+    <col customWidth="1" max="2" min="2" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="25.2"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="20.4"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="2.4"/>
+    <col customWidth="1" max="8" min="8" width="2.4"/>
+    <col customWidth="1" max="9" min="9" width="26.4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1"/>
+    <row r="2">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Muestra de productos</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Nombre del producto</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Código producto</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Estatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Camisa</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>145.75</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Blusa</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>742.8</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Inactivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Lentes</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Inactivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>299</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Gorra</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Inactivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total: </t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>$2065.45</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>